--- a/pred_ohlcv/54_21/2019-10-27 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 QTUM ohlcv.xlsx
@@ -1692,7 +1692,7 @@
         <v>-3167.312540899998</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1575.459640899998</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2638.960140899998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2633.960140899998</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2880.627940899998</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1755.401540899998</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1775.905540899998</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1859.381140899998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1752.862040899998</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1472.566240899998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5639.822440899998</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5609.042640899997</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-5584.514140899998</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-5334.514140899998</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4715.402540899998</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3364.902540899998</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3364.902540899998</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3046.002540899998</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2934.902540899998</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>60620.01384180001</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>52720.30494180001</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>38384.37974180001</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>42304.78224180001</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>39878.87514180002</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>40466.73934180001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>40466.73934180001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>44059.26804180002</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>44467.24834180002</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>47755.68234180002</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>47755.68234180002</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>48725.95224180002</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>45523.77504180002</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>38593.22934180002</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>38778.23744180002</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>41546.21664180002</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>42302.77864180002</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>40143.28634180002</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>41049.52225298002</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>40599.56385298002</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>39783.41995298002</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>37856.41995298002</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>34873.42675298002</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>44221.86415298002</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>44221.86415298002</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>44249.70365298002</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>47836.02533277003</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>44396.55223277002</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>41725.30753277002</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>35466.30803277002</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>35887.52743277002</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>33099.38973277003</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>60109.48915393002</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>57749.23558145002</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>45446.92005865002</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>43415.99205865002</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>43415.99205865002</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>43089.71355865002</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>43677.31875865002</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>43677.31875865002</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>41850.50675865002</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>43304.87025865002</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>46323.87835865002</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>43619.19415865002</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>42151.90215865002</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>45734.20595865002</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>53709.17145865002</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>62663.63245865001</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>36852.30919293001</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>48039.97512743001</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>35527.22790416001</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>26252.17530416001</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>17247.31780416001</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>13660.71540416001</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>15784.71040416001</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>10850.72820416001</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>8105.93540416001</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1954.03460416001</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-2610.02639583999</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-11083.76079583999</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-34733.51822087998</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-29848.89102087998</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-31607.09232087998</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-30500.01522087998</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-26270.44992087998</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-25802.63792087998</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 QTUM ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>-2947.372140899998</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3345.009340899998</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3345.178940899998</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3345.178940899998</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3026.824540899998</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3471.421540899998</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-3382.680840899998</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3079.658840899998</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3079.658840899998</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2188.548340899998</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3298.659640899998</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1579.659640899998</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1575.459640899998</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1575.459640899998</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2638.960140899998</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2633.960140899998</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2880.627940899998</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1755.401540899998</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1775.905540899998</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1859.381140899998</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1859.381140899998</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-2100.713140899998</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1752.862040899998</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1472.566240899998</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5609.042640899997</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-5584.514140899998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-5334.514140899998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4715.402540899998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3364.902540899998</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3364.902540899998</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3046.002540899998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2934.902540899998</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2933.847840899998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2938.617240899998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2927.562540899998</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2915.367040899998</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2833.367040899998</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2491.092040899998</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>60620.01384180001</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>52720.30494180001</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>38384.37974180001</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>42304.78224180001</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>39878.87514180002</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>40466.73934180001</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>40466.73934180001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>44059.26804180002</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>44467.24834180002</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>47755.68234180002</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>47755.68234180002</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>48725.95224180002</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>45523.77504180002</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>38593.22934180002</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>38778.23744180002</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>41546.21664180002</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>42302.77864180002</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>40143.28634180002</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>41049.52225298002</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>40599.56385298002</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>39783.41995298002</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>37856.41995298002</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>34873.42675298002</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>44221.86415298002</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>44221.86415298002</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>44249.70365298002</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>47836.02533277003</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>44396.55223277002</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>41725.30753277002</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>35466.30803277002</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>35887.52743277002</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>33099.38973277003</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>60109.48915393002</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>57749.23558145002</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>45446.92005865002</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>43415.99205865002</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>43415.99205865002</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>43089.71355865002</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>43677.31875865002</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>43677.31875865002</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>41850.50675865002</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>43304.87025865002</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>46323.87835865002</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>43619.19415865002</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>42151.90215865002</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>45734.20595865002</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>53709.17145865002</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>62663.63245865001</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>54096.50255865001</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>32466.80076788001</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>36852.30919293001</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>48039.97512743001</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>35527.22790416001</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>26252.17530416001</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>17247.31780416001</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>13660.71540416001</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>15784.71040416001</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>10850.72820416001</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>8105.93540416001</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1954.03460416001</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-2610.02639583999</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-11083.76079583999</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-11083.76079583999</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-11024.46453005999</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-8151.351020879989</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-10574.25242087999</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-14143.67142087999</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-16980.76682087999</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-24933.83292087999</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-34811.60252087998</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-35067.77422087998</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-33916.38252087998</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-27202.75252087998</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-16002.46054592998</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-15765.84534592998</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-18869.39581347999</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-28938.35919121999</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
